--- a/paralg/u2/a2.xlsx
+++ b/paralg/u2/a2.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -408,10 +408,28 @@
         <v>5.53E-4</v>
       </c>
       <c r="C2" s="1">
-        <v>6.69E-4</v>
+        <v>7.0799999999999997E-4</v>
       </c>
       <c r="D2" s="1">
-        <v>1.6479999999999999E-3</v>
+        <v>1.5560000000000001E-3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5.3940000000000004E-3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.077E-2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.2336999999999999E-2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>4.4540999999999997E-2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>8.5453000000000001E-2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.16869899999999999</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -424,10 +442,31 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>8.8459999999999997E-3</v>
+        <v>1.1493E-2</v>
       </c>
       <c r="C4" s="1">
-        <v>6.999E-3</v>
+        <v>7.2570000000000004E-3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.5176E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3.1842000000000002E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6.4695000000000003E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.13134699999999999</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.25230599999999997</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.50329199999999996</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.007779</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -435,10 +474,31 @@
         <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>2.8969999999999998E-3</v>
+        <v>3.9690000000000003E-3</v>
       </c>
       <c r="C5" s="1">
-        <v>3.359E-3</v>
+        <v>3.5430000000000001E-3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8.6510000000000007E-3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.6707E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3.3341999999999997E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>6.7124000000000003E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.12902</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.26968799999999998</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.533883</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -446,10 +506,31 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>1.642E-3</v>
+        <v>2.0630000000000002E-3</v>
       </c>
       <c r="C6" s="1">
-        <v>2.3019999999999998E-3</v>
+        <v>2.5899999999999999E-3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5.1070000000000004E-3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>9.3240000000000007E-3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.7586999999999998E-2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3.7324999999999997E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>7.5170000000000001E-2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.146453</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.27463799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -457,10 +538,31 @@
         <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>2.0089999999999999E-3</v>
+        <v>1.585E-3</v>
       </c>
       <c r="C7" s="1">
-        <v>2.2060000000000001E-3</v>
+        <v>1.9719999999999998E-3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.63E-3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6.3629999999999997E-3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.3136E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2.1867999999999999E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4.0106000000000003E-2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>8.3612000000000006E-2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.16228000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -468,10 +570,31 @@
         <v>16</v>
       </c>
       <c r="B8" s="1">
-        <v>8.8859999999999998E-3</v>
+        <v>2.317E-3</v>
       </c>
       <c r="C8" s="1">
-        <v>2.1180000000000001E-3</v>
+        <v>2.0379999999999999E-3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3.6319999999999998E-3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6.4310000000000001E-3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.2231000000000001E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2.1520999999999998E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>4.1958000000000002E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>8.0378000000000005E-2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.15612000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -479,37 +602,34 @@
         <v>32</v>
       </c>
       <c r="B9" s="1">
-        <v>0.18321100000000001</v>
+        <v>6.6124000000000002E-2</v>
       </c>
       <c r="C9" s="1">
-        <v>3.8500000000000001E-3</v>
+        <v>2.379E-3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4.3750000000000004E-3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.2212000000000001E-2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2.1193E-2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3.8316999999999997E-2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>7.3507000000000003E-2</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.14941699999999999</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B9">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C9">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/paralg/u2/a2.xlsx
+++ b/paralg/u2/a2.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Runtime over Problem size" sheetId="2" r:id="rId1"/>
+    <sheet name="Speedup over Core count" sheetId="3" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>n</t>
   </si>
@@ -33,6 +35,21 @@
   </si>
   <si>
     <t>cores</t>
+  </si>
+  <si>
+    <t>speedup</t>
+  </si>
+  <si>
+    <t>efficiency</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>overhead</t>
+  </si>
+  <si>
+    <t>serial fraction</t>
   </si>
 </sst>
 </file>
@@ -70,7 +87,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -86,6 +103,3524 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Reduction</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Runtime</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>sequential</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$B$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>134217728</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>268435456</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$B$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.53E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0799999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5560000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3940000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.077E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2336999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4540999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.5453000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16869899999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1 core par.</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$B$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>134217728</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>268435456</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$B$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.1493E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2570000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5176E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1842000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4695000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13134699999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25230599999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50329199999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.007779</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>2 core par.</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$B$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>134217728</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>268435456</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$B$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.9690000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5430000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6510000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6707E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3341999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7124000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.26968799999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.533883</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>4 core par.</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$B$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>134217728</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>268435456</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$B$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.0630000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5899999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1070000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3240000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7586999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7324999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.5170000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.146453</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.27463799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>8 core par.</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$B$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>134217728</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>268435456</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$B$7:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.585E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9719999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.63E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3629999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3136E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1867999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0106000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.3612000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16228000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>16 core par.</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$B$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>134217728</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>268435456</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$B$8:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.317E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0379999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6319999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4310000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2231000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1520999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1958000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0378000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15612000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>32 core par.</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$B$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>134217728</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>268435456</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$B$9:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6.6124000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.379E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3750000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2212000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1193E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8316999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.3507000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14941699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="391663104"/>
+        <c:axId val="391662320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="391663104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Array</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> size n</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="391662320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="391662320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Runtime</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> [s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="391663104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>speedup over</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> number of cores in dependency of problem size n</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1048576</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$A$11:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$B$11:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.8116244670669106E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13932980599647266</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26805622879301982</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34889589905362778</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23867069486404832</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3630754340330293E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2097152</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$A$11:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$C$11:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.7560975609756087E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1998306519898391</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27335907335907339</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35902636916835701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34739941118743867</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29760403530895335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4194304</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$A$11:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$D$11:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.10253031101739589</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17986359958386314</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30467985118464852</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42865013774104688</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42841409691629961</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35565714285714284</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8388608</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$A$11:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$E$11:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.16939890710382513</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32285868198958523</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5785070785070785</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84771334276284782</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8387498056289846</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73890410958904118</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16777216</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$A$11:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$F$11:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.16647345235335034</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32301601583588269</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61238414738158875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81988428745432396</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88054942359578114</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88191942351785124</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$A$11:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$G$11:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.17006098350171683</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33277218282581489</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59844608171466851</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0214468629961588</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0379164536963896</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.053980087764828</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>67108864</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$A$11:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$H$11:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.17653563529999286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34522554642691056</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59253691632300121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1105819578117986</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0615615615615615</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1624344285826136</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>134217728</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$A$11:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$I$11:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.16978811505050748</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31685874047046958</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58348412118563631</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0220183705688177</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0631391674338748</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.16251513461303</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>268435456</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$A$11:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$J$11:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.16739682013616081</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31598496299751067</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61425949795731105</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0395550899679564</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0805726364335126</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1290482341366779</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="566539416"/>
+        <c:axId val="566537456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="566539416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> over cores</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="566537456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="566537456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> factor</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="566539416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9304020" cy="6019800"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9304020" cy="6019800"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,51 +3886,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <f>2 ^ 20</f>
         <v>1048576</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <f>2 ^ 21</f>
         <v>2097152</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
         <f>2 ^ 22</f>
         <v>4194304</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="1">
         <f>2 ^ 23</f>
         <v>8388608</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="1">
         <f>2 ^ 24</f>
         <v>16777216</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="1">
         <f>2 ^ 25</f>
         <v>33554432</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="1">
         <f>2 ^ 26</f>
         <v>67108864</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="1">
         <f>2 ^ 27</f>
         <v>134217728</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="1">
         <f>2 ^ 28</f>
         <v>268435456</v>
       </c>
@@ -436,6 +3974,15 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -627,6 +4174,1306 @@
       </c>
       <c r="J9" s="1">
         <v>0.14941699999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <f>B$2/B4</f>
+        <v>4.8116244670669106E-2</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" ref="C11:J11" si="0">C$2/C4</f>
+        <v>9.7560975609756087E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10253031101739589</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16939890710382513</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16647345235335034</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17006098350171683</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17653563529999286</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16978811505050748</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16739682013616081</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" ref="B12:J16" si="1">B$2/B5</f>
+        <v>0.13932980599647266</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1998306519898391</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.17986359958386314</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.32285868198958523</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.32301601583588269</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.33277218282581489</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.34522554642691056</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.31685874047046958</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.31598496299751067</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.26805622879301982</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.27335907335907339</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.30467985118464852</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5785070785070785</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.61238414738158875</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.59844608171466851</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.59253691632300121</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.58348412118563631</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.61425949795731105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.34889589905362778</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.35902636916835701</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.42865013774104688</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.84771334276284782</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.81988428745432396</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0214468629961588</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1105819578117986</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0220183705688177</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0395550899679564</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23867069486404832</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.34739941118743867</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.42841409691629961</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.8387498056289846</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.88054942359578114</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0379164536963896</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0615615615615615</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0631391674338748</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0805726364335126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>32</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="1"/>
+        <v>8.3630754340330293E-3</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.29760403530895335</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.35565714285714284</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.73890410958904118</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.88191942351785124</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="1"/>
+        <v>1.053980087764828</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1624344285826136</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="1"/>
+        <v>1.16251513461303</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1290482341366779</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <f>B11/$A18</f>
+        <v>4.8116244670669106E-2</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" ref="C18:J18" si="2">C11/$A18</f>
+        <v>9.7560975609756087E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="2"/>
+        <v>0.10253031101739589</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="2"/>
+        <v>0.16939890710382513</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="2"/>
+        <v>0.16647345235335034</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="2"/>
+        <v>0.17006098350171683</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="2"/>
+        <v>0.17653563529999286</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="2"/>
+        <v>0.16978811505050748</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="2"/>
+        <v>0.16739682013616081</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" ref="B19:J23" si="3">B12/$A19</f>
+        <v>6.9664902998236328E-2</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="3"/>
+        <v>9.9915325994919549E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="3"/>
+        <v>8.9931799791931569E-2</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="3"/>
+        <v>0.16142934099479261</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="3"/>
+        <v>0.16150800791794134</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="3"/>
+        <v>0.16638609141290744</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="3"/>
+        <v>0.17261277321345528</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="3"/>
+        <v>0.15842937023523479</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="3"/>
+        <v>0.15799248149875533</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="3"/>
+        <v>6.7014057198254956E-2</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="3"/>
+        <v>6.8339768339768348E-2</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="3"/>
+        <v>7.616996279616213E-2</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="3"/>
+        <v>0.14462676962676962</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="3"/>
+        <v>0.15309603684539719</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="3"/>
+        <v>0.14961152042866713</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="3"/>
+        <v>0.1481342290807503</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="3"/>
+        <v>0.14587103029640908</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="3"/>
+        <v>0.15356487448932776</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="3"/>
+        <v>4.3611987381703472E-2</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="3"/>
+        <v>4.4878296146044626E-2</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="3"/>
+        <v>5.358126721763086E-2</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="3"/>
+        <v>0.10596416784535598</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="3"/>
+        <v>0.10248553593179049</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="3"/>
+        <v>0.12768085787451985</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="3"/>
+        <v>0.13882274472647482</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="3"/>
+        <v>0.12775229632110222</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="3"/>
+        <v>0.12994438624599455</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="3"/>
+        <v>1.491691842900302E-2</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="3"/>
+        <v>2.1712463199214917E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="3"/>
+        <v>2.6775881057268726E-2</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="3"/>
+        <v>5.2421862851811538E-2</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="3"/>
+        <v>5.5034338974736322E-2</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="3"/>
+        <v>6.4869778356024352E-2</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="3"/>
+        <v>6.6347597597597591E-2</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="3"/>
+        <v>6.6446197964617176E-2</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="3"/>
+        <v>6.753578977709454E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>32</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="3"/>
+        <v>2.6134610731353217E-4</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="3"/>
+        <v>9.3001261034047922E-3</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1114285714285714E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="3"/>
+        <v>2.3090753424657537E-2</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7559981984932851E-2</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="3"/>
+        <v>3.2936877742650875E-2</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="3"/>
+        <v>3.6326075893206675E-2</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="3"/>
+        <v>3.6328597956657188E-2</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="3"/>
+        <v>3.5282757316771184E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1">
+        <f>B4*$A25</f>
+        <v>1.1493E-2</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" ref="C25:J25" si="4">C4*$A25</f>
+        <v>7.2570000000000004E-3</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="4"/>
+        <v>1.5176E-2</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="4"/>
+        <v>3.1842000000000002E-2</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="4"/>
+        <v>6.4695000000000003E-2</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="4"/>
+        <v>0.13134699999999999</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="4"/>
+        <v>0.25230599999999997</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="4"/>
+        <v>0.50329199999999996</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="4"/>
+        <v>1.007779</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" ref="B26:J26" si="5">B5*$A26</f>
+        <v>7.9380000000000006E-3</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="5"/>
+        <v>7.0860000000000003E-3</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="5"/>
+        <v>1.7302000000000001E-2</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="5"/>
+        <v>3.3413999999999999E-2</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="5"/>
+        <v>6.6683999999999993E-2</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="5"/>
+        <v>0.13424800000000001</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="5"/>
+        <v>0.25803999999999999</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="5"/>
+        <v>0.53937599999999997</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="5"/>
+        <v>1.067766</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" ref="B27:J27" si="6">B6*$A27</f>
+        <v>8.2520000000000007E-3</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0359999999999999E-2</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="6"/>
+        <v>2.0428000000000002E-2</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="6"/>
+        <v>3.7296000000000003E-2</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="6"/>
+        <v>7.0347999999999994E-2</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="6"/>
+        <v>0.14929999999999999</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="6"/>
+        <v>0.30068</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="6"/>
+        <v>0.585812</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="6"/>
+        <v>1.098552</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>8</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" ref="B28:J28" si="7">B7*$A28</f>
+        <v>1.268E-2</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="7"/>
+        <v>1.5775999999999998E-2</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="7"/>
+        <v>2.904E-2</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="7"/>
+        <v>5.0903999999999998E-2</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="7"/>
+        <v>0.105088</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="7"/>
+        <v>0.17494399999999999</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="7"/>
+        <v>0.32084800000000002</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="7"/>
+        <v>0.66889600000000005</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="7"/>
+        <v>1.2982400000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>16</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" ref="B29:J29" si="8">B8*$A29</f>
+        <v>3.7072000000000001E-2</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="8"/>
+        <v>3.2607999999999998E-2</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="8"/>
+        <v>5.8111999999999997E-2</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="8"/>
+        <v>0.102896</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="8"/>
+        <v>0.19569600000000001</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="8"/>
+        <v>0.34433599999999998</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="8"/>
+        <v>0.67132800000000004</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="8"/>
+        <v>1.2860480000000001</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="8"/>
+        <v>2.4979200000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" ref="B30:J30" si="9">B9*$A30</f>
+        <v>2.1159680000000001</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="9"/>
+        <v>7.6128000000000001E-2</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="9"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="9"/>
+        <v>0.2336</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="9"/>
+        <v>0.39078400000000002</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="9"/>
+        <v>0.678176</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="9"/>
+        <v>1.2261439999999999</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="9"/>
+        <v>2.3522240000000001</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="9"/>
+        <v>4.7813439999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1">
+        <f>B25-B$2</f>
+        <v>1.094E-2</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" ref="C32:J32" si="10">C25-C$2</f>
+        <v>6.5490000000000001E-3</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="10"/>
+        <v>1.362E-2</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="10"/>
+        <v>2.6448000000000003E-2</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="10"/>
+        <v>5.3925000000000001E-2</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="10"/>
+        <v>0.10901</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="10"/>
+        <v>0.20776499999999998</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="10"/>
+        <v>0.41783899999999996</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="10"/>
+        <v>0.83908000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" ref="B33:J33" si="11">B26-B$2</f>
+        <v>7.3850000000000009E-3</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="11"/>
+        <v>6.378E-3</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="11"/>
+        <v>1.5746000000000003E-2</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="11"/>
+        <v>2.802E-2</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="11"/>
+        <v>5.5913999999999991E-2</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="11"/>
+        <v>0.11191100000000001</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="11"/>
+        <v>0.21349899999999999</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="11"/>
+        <v>0.45392299999999997</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" si="11"/>
+        <v>0.89906700000000006</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" ref="B34:J34" si="12">B27-B$2</f>
+        <v>7.699000000000001E-3</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="12"/>
+        <v>9.6519999999999991E-3</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="12"/>
+        <v>1.8872E-2</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="12"/>
+        <v>3.1902E-2</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="12"/>
+        <v>5.9577999999999992E-2</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="12"/>
+        <v>0.12696299999999999</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="12"/>
+        <v>0.25613900000000001</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="12"/>
+        <v>0.500359</v>
+      </c>
+      <c r="J34" s="1">
+        <f t="shared" si="12"/>
+        <v>0.92985300000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" ref="B35:J35" si="13">B28-B$2</f>
+        <v>1.2127000000000001E-2</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="13"/>
+        <v>1.5067999999999998E-2</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="13"/>
+        <v>2.7484000000000001E-2</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="13"/>
+        <v>4.5509999999999995E-2</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="13"/>
+        <v>9.4317999999999999E-2</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="13"/>
+        <v>0.15260699999999999</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="13"/>
+        <v>0.27630700000000002</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="13"/>
+        <v>0.58344300000000004</v>
+      </c>
+      <c r="J35" s="1">
+        <f t="shared" si="13"/>
+        <v>1.1295410000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>16</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" ref="B36:J36" si="14">B29-B$2</f>
+        <v>3.6519000000000003E-2</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="14"/>
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="14"/>
+        <v>5.6555999999999995E-2</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="14"/>
+        <v>9.7502000000000005E-2</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="14"/>
+        <v>0.18492600000000001</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="14"/>
+        <v>0.32199899999999998</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="14"/>
+        <v>0.62678699999999998</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="14"/>
+        <v>1.2005950000000001</v>
+      </c>
+      <c r="J36" s="1">
+        <f t="shared" si="14"/>
+        <v>2.329221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>32</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" ref="B37:J37" si="15">B30-B$2</f>
+        <v>2.115415</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="15"/>
+        <v>7.5420000000000001E-2</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="15"/>
+        <v>0.13844400000000001</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="15"/>
+        <v>0.22820599999999999</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="15"/>
+        <v>0.38001400000000002</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="15"/>
+        <v>0.65583899999999995</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="15"/>
+        <v>1.181603</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="15"/>
+        <v>2.2667710000000003</v>
+      </c>
+      <c r="J37" s="1">
+        <f t="shared" si="15"/>
+        <v>4.6126449999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1" t="e">
+        <f>(1/B11-1/$A39)/(1-1/$A39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C39" s="1" t="e">
+        <f t="shared" ref="C39:J39" si="16">(1/C11-1/$A39)/(1-1/$A39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D39" s="1" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E39" s="1" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F39" s="1" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G39" s="1" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H39" s="1" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I39" s="1" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J39" s="1" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" ref="B40:J40" si="17">(1/B12-1/$A40)/(1-1/$A40)</f>
+        <v>13.354430379746836</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" si="17"/>
+        <v>9.0084745762711869</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="17"/>
+        <v>10.119537275064268</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="17"/>
+        <v>5.1946607341490543</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="17"/>
+        <v>5.1916434540389966</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="17"/>
+        <v>5.0101177418632767</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="17"/>
+        <v>4.793314025280079</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="17"/>
+        <v>5.3119609609961032</v>
+      </c>
+      <c r="J40" s="1">
+        <f t="shared" si="17"/>
+        <v>5.3294151121227751</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41" s="1">
+        <f t="shared" ref="B41:J41" si="18">(1/B13-1/$A41)/(1-1/$A41)</f>
+        <v>4.6407474382157936</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="18"/>
+        <v>4.5442561205273062</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="18"/>
+        <v>4.0428449014567267</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="18"/>
+        <v>1.9714497589914721</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="18"/>
+        <v>1.8439492417208292</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="18"/>
+        <v>1.8946590858217307</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="18"/>
+        <v>1.9168780823660596</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="18"/>
+        <v>1.9517902628735486</v>
+      </c>
+      <c r="J41" s="1">
+        <f t="shared" si="18"/>
+        <v>1.8373019401419095</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>8</v>
+      </c>
+      <c r="B42" s="1">
+        <f t="shared" ref="B42:J42" si="19">(1/B14-1/$A42)/(1-1/$A42)</f>
+        <v>3.1327822268147765</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="19"/>
+        <v>3.0403551251008878</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="19"/>
+        <v>2.5233198677928752</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" si="19"/>
+        <v>1.2053074845065945</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="19"/>
+        <v>1.2510677808727948</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="19"/>
+        <v>0.97600393965169896</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="19"/>
+        <v>0.88620436387662094</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="19"/>
+        <v>0.97537827811779587</v>
+      </c>
+      <c r="J42" s="1">
+        <f t="shared" si="19"/>
+        <v>0.95651426505195669</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>16</v>
+      </c>
+      <c r="B43" s="1">
+        <f t="shared" ref="B43:J43" si="20">(1/B15-1/$A43)/(1-1/$A43)</f>
+        <v>4.4025316455696206</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" si="20"/>
+        <v>3.0037664783427496</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="20"/>
+        <v>2.423136246786632</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" si="20"/>
+        <v>1.2050673587937213</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="20"/>
+        <v>1.1446982358402973</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="20"/>
+        <v>0.96103326319559479</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="20"/>
+        <v>0.93814238566713826</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="20"/>
+        <v>0.93665133660218691</v>
+      </c>
+      <c r="J43" s="1">
+        <f t="shared" si="20"/>
+        <v>0.9204642588278531</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>32</v>
+      </c>
+      <c r="B44" s="1">
+        <f t="shared" ref="B44:J44" si="21">(1/B16-1/$A44)/(1-1/$A44)</f>
+        <v>123.39818001516653</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" si="21"/>
+        <v>3.4363039912520499</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="21"/>
+        <v>2.870138485778257</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" si="21"/>
+        <v>1.364754147380004</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="21"/>
+        <v>1.1382094827328002</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" si="21"/>
+        <v>0.94713241591053177</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="21"/>
+        <v>0.85575595084195699</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" si="21"/>
+        <v>0.85569430167800231</v>
+      </c>
+      <c r="J44" s="1">
+        <f t="shared" si="21"/>
+        <v>0.88201471259462116</v>
       </c>
     </row>
   </sheetData>

--- a/paralg/u2/a2.xlsx
+++ b/paralg/u2/a2.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Runtime over Problem size" sheetId="2" r:id="rId1"/>
     <sheet name="Speedup over Core count" sheetId="3" r:id="rId2"/>
     <sheet name="Data" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -85,12 +85,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -108,7 +109,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -176,7 +177,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -244,39 +245,44 @@
             <c:numRef>
               <c:f>Data!$B$2:$J$2</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>5.53E-4</c:v>
+                  <c:v>6.4599999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0799999999999997E-4</c:v>
+                  <c:v>7.9299999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5560000000000001E-3</c:v>
+                  <c:v>2.8800000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.3940000000000004E-3</c:v>
+                  <c:v>6.6579999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.077E-2</c:v>
+                  <c:v>1.0744E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2336999999999999E-2</c:v>
+                  <c:v>2.1475999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.4540999999999997E-2</c:v>
+                  <c:v>4.2795E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.5453000000000001E-2</c:v>
+                  <c:v>9.536E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.16869899999999999</c:v>
+                  <c:v>0.19625799999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-06A9-4A36-A49B-B3B710C242C4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -336,39 +342,44 @@
             <c:numRef>
               <c:f>Data!$B$4:$J$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.1493E-2</c:v>
+                  <c:v>5.7829999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.2570000000000004E-3</c:v>
+                  <c:v>7.8919999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5176E-2</c:v>
+                  <c:v>1.7982000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1842000000000002E-2</c:v>
+                  <c:v>3.4099999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.4695000000000003E-2</c:v>
+                  <c:v>6.4742999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13134699999999999</c:v>
+                  <c:v>0.131628</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25230599999999997</c:v>
+                  <c:v>0.266509</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.50329199999999996</c:v>
+                  <c:v>0.54685300000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.007779</c:v>
+                  <c:v>1.1013919999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-06A9-4A36-A49B-B3B710C242C4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -428,39 +439,44 @@
             <c:numRef>
               <c:f>Data!$B$5:$J$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>3.9690000000000003E-3</c:v>
+                  <c:v>3.4139999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5430000000000001E-3</c:v>
+                  <c:v>4.1390000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.6510000000000007E-3</c:v>
+                  <c:v>8.7889999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6707E-2</c:v>
+                  <c:v>1.7070999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3341999999999997E-2</c:v>
+                  <c:v>3.4289E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.7124000000000003E-2</c:v>
+                  <c:v>6.5324999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12902</c:v>
+                  <c:v>0.13045000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.26968799999999998</c:v>
+                  <c:v>0.27006200000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.533883</c:v>
+                  <c:v>0.54201699999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-06A9-4A36-A49B-B3B710C242C4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -520,39 +536,44 @@
             <c:numRef>
               <c:f>Data!$B$6:$J$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.0630000000000002E-3</c:v>
+                  <c:v>1.635E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5899999999999999E-3</c:v>
+                  <c:v>2.4680000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1070000000000004E-3</c:v>
+                  <c:v>5.2779999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.3240000000000007E-3</c:v>
+                  <c:v>1.0418999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7586999999999998E-2</c:v>
+                  <c:v>1.8076999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7324999999999997E-2</c:v>
+                  <c:v>3.4551999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.5170000000000001E-2</c:v>
+                  <c:v>6.9921999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.146453</c:v>
+                  <c:v>0.14529500000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.27463799999999999</c:v>
+                  <c:v>0.317052</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-06A9-4A36-A49B-B3B710C242C4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -612,39 +633,44 @@
             <c:numRef>
               <c:f>Data!$B$7:$J$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.585E-3</c:v>
+                  <c:v>1.013E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9719999999999998E-3</c:v>
+                  <c:v>1.8699999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.63E-3</c:v>
+                  <c:v>3.5000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3629999999999997E-3</c:v>
+                  <c:v>6.3990000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3136E-2</c:v>
+                  <c:v>1.1198E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1867999999999999E-2</c:v>
+                  <c:v>2.002E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0106000000000003E-2</c:v>
+                  <c:v>3.8405000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.3612000000000006E-2</c:v>
+                  <c:v>9.4556000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.16228000000000001</c:v>
+                  <c:v>0.22236800000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-06A9-4A36-A49B-B3B710C242C4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -704,39 +730,44 @@
             <c:numRef>
               <c:f>Data!$B$8:$J$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.317E-3</c:v>
+                  <c:v>7.3124999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0379999999999999E-3</c:v>
+                  <c:v>1.7880000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6319999999999998E-3</c:v>
+                  <c:v>3.1619999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.4310000000000001E-3</c:v>
+                  <c:v>5.4169999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2231000000000001E-2</c:v>
+                  <c:v>9.7820000000000008E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1520999999999998E-2</c:v>
+                  <c:v>1.7593000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1958000000000002E-2</c:v>
+                  <c:v>3.1695000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0378000000000005E-2</c:v>
+                  <c:v>7.7814999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.15612000000000001</c:v>
+                  <c:v>0.19970399999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-06A9-4A36-A49B-B3B710C242C4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -798,39 +829,44 @@
             <c:numRef>
               <c:f>Data!$B$9:$J$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>6.6124000000000002E-2</c:v>
+                  <c:v>3.9114000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.379E-3</c:v>
+                  <c:v>1.853E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3750000000000004E-3</c:v>
+                  <c:v>3.6939999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.3000000000000001E-3</c:v>
+                  <c:v>6.1529999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2212000000000001E-2</c:v>
+                  <c:v>1.0784999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1193E-2</c:v>
+                  <c:v>1.9779000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.8316999999999997E-2</c:v>
+                  <c:v>3.7346999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.3507000000000003E-2</c:v>
+                  <c:v>0.12889100000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.14941699999999999</c:v>
+                  <c:v>0.308139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-06A9-4A36-A49B-B3B710C242C4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -921,7 +957,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -959,7 +995,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="391662320"/>
@@ -1044,11 +1080,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1082,7 +1118,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="391663104"/>
@@ -1125,7 +1161,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1155,7 +1191,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -1164,7 +1200,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1232,7 +1268,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1314,27 +1350,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.8116244670669106E-2</c:v>
+                  <c:v>0.11170672661248486</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13932980599647266</c:v>
+                  <c:v>0.18922085530169888</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26805622879301982</c:v>
+                  <c:v>0.39510703363914373</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.34889589905362778</c:v>
+                  <c:v>0.63770977295162878</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23867069486404832</c:v>
+                  <c:v>8.8341880341880341E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.3630754340330293E-3</c:v>
+                  <c:v>1.6515825535613846E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EB3E-48DE-B86B-0EA94A7A4631}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1408,27 +1449,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>9.7560975609756087E-2</c:v>
+                  <c:v>0.10048150025342119</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1998306519898391</c:v>
+                  <c:v>0.19159217202222756</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27335907335907339</c:v>
+                  <c:v>0.32131280388978928</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35902636916835701</c:v>
+                  <c:v>0.42406417112299466</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.34739941118743867</c:v>
+                  <c:v>0.44351230425055926</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.29760403530895335</c:v>
+                  <c:v>0.42795466810577437</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EB3E-48DE-B86B-0EA94A7A4631}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1502,27 +1548,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.10253031101739589</c:v>
+                  <c:v>0.16016016016016016</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17986359958386314</c:v>
+                  <c:v>0.32768233018545911</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30467985118464852</c:v>
+                  <c:v>0.54566123531640776</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.42865013774104688</c:v>
+                  <c:v>0.82285714285714284</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.42841409691629961</c:v>
+                  <c:v>0.91081593927893745</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.35565714285714284</c:v>
+                  <c:v>0.7796426637791013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EB3E-48DE-B86B-0EA94A7A4631}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1596,27 +1647,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.16939890710382513</c:v>
+                  <c:v>0.19524926686217009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32285868198958523</c:v>
+                  <c:v>0.39001815945170171</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5785070785070785</c:v>
+                  <c:v>0.63902485843171131</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84771334276284782</c:v>
+                  <c:v>1.0404750742303484</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8387498056289846</c:v>
+                  <c:v>1.2290935942403545</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.73890410958904118</c:v>
+                  <c:v>1.0820737851454576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EB3E-48DE-B86B-0EA94A7A4631}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1690,27 +1746,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.16647345235335034</c:v>
+                  <c:v>0.16594844230264277</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32301601583588269</c:v>
+                  <c:v>0.31333663857213684</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61238414738158875</c:v>
+                  <c:v>0.59434640703656583</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81988428745432396</c:v>
+                  <c:v>0.95945704590105385</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88054942359578114</c:v>
+                  <c:v>1.0983438969535881</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.88191942351785124</c:v>
+                  <c:v>0.99619842373667133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EB3E-48DE-B86B-0EA94A7A4631}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -1784,27 +1845,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.17006098350171683</c:v>
+                  <c:v>0.1631567751542225</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33277218282581489</c:v>
+                  <c:v>0.32875621890547263</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59844608171466851</c:v>
+                  <c:v>0.6215559157212317</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0214468629961588</c:v>
+                  <c:v>1.0727272727272728</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0379164536963896</c:v>
+                  <c:v>1.2207127834934348</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.053980087764828</c:v>
+                  <c:v>1.0857980686586783</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-EB3E-48DE-B86B-0EA94A7A4631}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -1884,27 +1950,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.17653563529999286</c:v>
+                  <c:v>0.16057619067273526</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34522554642691056</c:v>
+                  <c:v>0.32805672671521652</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59253691632300121</c:v>
+                  <c:v>0.61203912931552307</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1105819578117986</c:v>
+                  <c:v>1.114308032808228</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0615615615615615</c:v>
+                  <c:v>1.350212967345007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1624344285826136</c:v>
+                  <c:v>1.1458751706964416</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-EB3E-48DE-B86B-0EA94A7A4631}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -1984,27 +2055,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.16978811505050748</c:v>
+                  <c:v>0.17437958647022142</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31685874047046958</c:v>
+                  <c:v>0.35310410202101739</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.58348412118563631</c:v>
+                  <c:v>0.65631990089129011</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0220183705688177</c:v>
+                  <c:v>1.008502897753712</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0631391674338748</c:v>
+                  <c:v>1.225470667609073</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.16251513461303</c:v>
+                  <c:v>0.73984995073356552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-EB3E-48DE-B86B-0EA94A7A4631}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -2084,27 +2160,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.16739682013616081</c:v>
+                  <c:v>0.17819087118845969</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31598496299751067</c:v>
+                  <c:v>0.36208827398402632</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61425949795731105</c:v>
+                  <c:v>0.6190088692075747</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0395550899679564</c:v>
+                  <c:v>0.88258202619081871</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0805726364335126</c:v>
+                  <c:v>0.98274446180346908</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1290482341366779</c:v>
+                  <c:v>0.63691386030330466</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-EB3E-48DE-B86B-0EA94A7A4631}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2195,7 +2276,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2233,7 +2314,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="566537456"/>
@@ -2318,7 +2399,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2356,7 +2437,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="566539416"/>
@@ -2399,7 +2480,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2429,7 +2510,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -3551,7 +3632,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="95" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3562,7 +3643,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3573,7 +3654,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304020" cy="6019800"/>
+    <xdr:ext cx="9294395" cy="6075947"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1"/>
@@ -3600,7 +3681,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304020" cy="6019800"/>
+    <xdr:ext cx="9300882" cy="6075189"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1"/>
@@ -3669,9 +3750,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -3704,9 +3785,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -3889,10 +3970,10 @@
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B16"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -3942,32 +4023,32 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>5.53E-4</v>
-      </c>
-      <c r="C2" s="1">
-        <v>7.0799999999999997E-4</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1.5560000000000001E-3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>5.3940000000000004E-3</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1.077E-2</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.2336999999999999E-2</v>
-      </c>
-      <c r="H2" s="1">
-        <v>4.4540999999999997E-2</v>
-      </c>
-      <c r="I2" s="1">
-        <v>8.5453000000000001E-2</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.16869899999999999</v>
+      <c r="B2" s="2">
+        <v>6.4599999999999998E-4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>7.9299999999999998E-4</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2.8800000000000002E-3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>6.6579999999999999E-3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1.0744E-2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2.1475999999999999E-2</v>
+      </c>
+      <c r="H2" s="2">
+        <v>4.2795E-2</v>
+      </c>
+      <c r="I2" s="2">
+        <v>9.536E-2</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.19625799999999999</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -3988,192 +4069,192 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
-        <v>1.1493E-2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>7.2570000000000004E-3</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1.5176E-2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3.1842000000000002E-2</v>
-      </c>
-      <c r="F4" s="1">
-        <v>6.4695000000000003E-2</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.13134699999999999</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.25230599999999997</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.50329199999999996</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1.007779</v>
+      <c r="B4" s="2">
+        <v>5.7829999999999999E-3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>7.8919999999999997E-3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.7982000000000001E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3.4099999999999998E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>6.4742999999999995E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.131628</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.266509</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.54685300000000003</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1.1013919999999999</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
-        <v>3.9690000000000003E-3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3.5430000000000001E-3</v>
-      </c>
-      <c r="D5" s="1">
-        <v>8.6510000000000007E-3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1.6707E-2</v>
-      </c>
-      <c r="F5" s="1">
-        <v>3.3341999999999997E-2</v>
-      </c>
-      <c r="G5" s="1">
-        <v>6.7124000000000003E-2</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.12902</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.26968799999999998</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.533883</v>
+      <c r="B5" s="2">
+        <v>3.4139999999999999E-3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4.1390000000000003E-3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>8.7889999999999999E-3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.7070999999999999E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3.4289E-2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>6.5324999999999994E-2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.13045000000000001</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.27006200000000002</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.54201699999999997</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>2.0630000000000002E-3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2.5899999999999999E-3</v>
-      </c>
-      <c r="D6" s="1">
-        <v>5.1070000000000004E-3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>9.3240000000000007E-3</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1.7586999999999998E-2</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3.7324999999999997E-2</v>
-      </c>
-      <c r="H6" s="1">
-        <v>7.5170000000000001E-2</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.146453</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.27463799999999999</v>
+      <c r="B6" s="2">
+        <v>1.635E-3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2.4680000000000001E-3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5.2779999999999997E-3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.0418999999999999E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1.8076999999999999E-2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3.4551999999999999E-2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>6.9921999999999998E-2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.14529500000000001</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.317052</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
-      <c r="B7" s="1">
-        <v>1.585E-3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1.9719999999999998E-3</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3.63E-3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>6.3629999999999997E-3</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1.3136E-2</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2.1867999999999999E-2</v>
-      </c>
-      <c r="H7" s="1">
-        <v>4.0106000000000003E-2</v>
-      </c>
-      <c r="I7" s="1">
-        <v>8.3612000000000006E-2</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.16228000000000001</v>
+      <c r="B7" s="2">
+        <v>1.013E-3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.8699999999999999E-3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6.3990000000000002E-3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1.1198E-2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2.002E-2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3.8405000000000002E-2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>9.4556000000000001E-2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.22236800000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>16</v>
       </c>
-      <c r="B8" s="1">
-        <v>2.317E-3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2.0379999999999999E-3</v>
-      </c>
-      <c r="D8" s="1">
-        <v>3.6319999999999998E-3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>6.4310000000000001E-3</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1.2231000000000001E-2</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2.1520999999999998E-2</v>
-      </c>
-      <c r="H8" s="1">
-        <v>4.1958000000000002E-2</v>
-      </c>
-      <c r="I8" s="1">
-        <v>8.0378000000000005E-2</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.15612000000000001</v>
+      <c r="B8" s="2">
+        <v>7.3124999999999996E-2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.7880000000000001E-3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3.1619999999999999E-3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5.4169999999999999E-3</v>
+      </c>
+      <c r="F8" s="2">
+        <v>9.7820000000000008E-3</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1.7593000000000001E-2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>3.1695000000000001E-2</v>
+      </c>
+      <c r="I8" s="2">
+        <v>7.7814999999999995E-2</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.19970399999999999</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>32</v>
       </c>
-      <c r="B9" s="1">
-        <v>6.6124000000000002E-2</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2.379E-3</v>
-      </c>
-      <c r="D9" s="1">
-        <v>4.3750000000000004E-3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>7.3000000000000001E-3</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1.2212000000000001E-2</v>
-      </c>
-      <c r="G9" s="1">
-        <v>2.1193E-2</v>
-      </c>
-      <c r="H9" s="1">
-        <v>3.8316999999999997E-2</v>
-      </c>
-      <c r="I9" s="1">
-        <v>7.3507000000000003E-2</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.14941699999999999</v>
+      <c r="B9" s="2">
+        <v>3.9114000000000003E-2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.853E-3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3.6939999999999998E-3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>6.1529999999999996E-3</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1.0784999999999999E-2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1.9779000000000001E-2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3.7346999999999998E-2</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.12889100000000001</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.308139</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -4196,39 +4277,39 @@
       </c>
       <c r="B11" s="1">
         <f>B$2/B4</f>
-        <v>4.8116244670669106E-2</v>
+        <v>0.11170672661248486</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" ref="C11:J11" si="0">C$2/C4</f>
-        <v>9.7560975609756087E-2</v>
+        <v>0.10048150025342119</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>0.10253031101739589</v>
+        <v>0.16016016016016016</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>0.16939890710382513</v>
+        <v>0.19524926686217009</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>0.16647345235335034</v>
+        <v>0.16594844230264277</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="0"/>
-        <v>0.17006098350171683</v>
+        <v>0.1631567751542225</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="0"/>
-        <v>0.17653563529999286</v>
+        <v>0.16057619067273526</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
-        <v>0.16978811505050748</v>
+        <v>0.17437958647022142</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="0"/>
-        <v>0.16739682013616081</v>
+        <v>0.17819087118845969</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -4237,39 +4318,39 @@
       </c>
       <c r="B12" s="1">
         <f t="shared" ref="B12:J16" si="1">B$2/B5</f>
-        <v>0.13932980599647266</v>
+        <v>0.18922085530169888</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="1"/>
-        <v>0.1998306519898391</v>
+        <v>0.19159217202222756</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>0.17986359958386314</v>
+        <v>0.32768233018545911</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="1"/>
-        <v>0.32285868198958523</v>
+        <v>0.39001815945170171</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="1"/>
-        <v>0.32301601583588269</v>
+        <v>0.31333663857213684</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="1"/>
-        <v>0.33277218282581489</v>
+        <v>0.32875621890547263</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="1"/>
-        <v>0.34522554642691056</v>
+        <v>0.32805672671521652</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="1"/>
-        <v>0.31685874047046958</v>
+        <v>0.35310410202101739</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="1"/>
-        <v>0.31598496299751067</v>
+        <v>0.36208827398402632</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -4278,39 +4359,39 @@
       </c>
       <c r="B13" s="1">
         <f t="shared" si="1"/>
-        <v>0.26805622879301982</v>
+        <v>0.39510703363914373</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="1"/>
-        <v>0.27335907335907339</v>
+        <v>0.32131280388978928</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>0.30467985118464852</v>
+        <v>0.54566123531640776</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>0.5785070785070785</v>
+        <v>0.63902485843171131</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="1"/>
-        <v>0.61238414738158875</v>
+        <v>0.59434640703656583</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="1"/>
-        <v>0.59844608171466851</v>
+        <v>0.6215559157212317</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="1"/>
-        <v>0.59253691632300121</v>
+        <v>0.61203912931552307</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="1"/>
-        <v>0.58348412118563631</v>
+        <v>0.65631990089129011</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="1"/>
-        <v>0.61425949795731105</v>
+        <v>0.6190088692075747</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -4319,39 +4400,39 @@
       </c>
       <c r="B14" s="1">
         <f t="shared" si="1"/>
-        <v>0.34889589905362778</v>
+        <v>0.63770977295162878</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="1"/>
-        <v>0.35902636916835701</v>
+        <v>0.42406417112299466</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="1"/>
-        <v>0.42865013774104688</v>
+        <v>0.82285714285714284</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="1"/>
-        <v>0.84771334276284782</v>
+        <v>1.0404750742303484</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
-        <v>0.81988428745432396</v>
+        <v>0.95945704590105385</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="1"/>
-        <v>1.0214468629961588</v>
+        <v>1.0727272727272728</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="1"/>
-        <v>1.1105819578117986</v>
+        <v>1.114308032808228</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="1"/>
-        <v>1.0220183705688177</v>
+        <v>1.008502897753712</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="1"/>
-        <v>1.0395550899679564</v>
+        <v>0.88258202619081871</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -4360,39 +4441,39 @@
       </c>
       <c r="B15" s="1">
         <f t="shared" si="1"/>
-        <v>0.23867069486404832</v>
+        <v>8.8341880341880341E-3</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="1"/>
-        <v>0.34739941118743867</v>
+        <v>0.44351230425055926</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="1"/>
-        <v>0.42841409691629961</v>
+        <v>0.91081593927893745</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="1"/>
-        <v>0.8387498056289846</v>
+        <v>1.2290935942403545</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="1"/>
-        <v>0.88054942359578114</v>
+        <v>1.0983438969535881</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="1"/>
-        <v>1.0379164536963896</v>
+        <v>1.2207127834934348</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="1"/>
-        <v>1.0615615615615615</v>
+        <v>1.350212967345007</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="1"/>
-        <v>1.0631391674338748</v>
+        <v>1.225470667609073</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="1"/>
-        <v>1.0805726364335126</v>
+        <v>0.98274446180346908</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -4401,39 +4482,39 @@
       </c>
       <c r="B16" s="1">
         <f t="shared" si="1"/>
-        <v>8.3630754340330293E-3</v>
+        <v>1.6515825535613846E-2</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="1"/>
-        <v>0.29760403530895335</v>
+        <v>0.42795466810577437</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="1"/>
-        <v>0.35565714285714284</v>
+        <v>0.7796426637791013</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="1"/>
-        <v>0.73890410958904118</v>
+        <v>1.0820737851454576</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="1"/>
-        <v>0.88191942351785124</v>
+        <v>0.99619842373667133</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="1"/>
-        <v>1.053980087764828</v>
+        <v>1.0857980686586783</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="1"/>
-        <v>1.1624344285826136</v>
+        <v>1.1458751706964416</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="1"/>
-        <v>1.16251513461303</v>
+        <v>0.73984995073356552</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="1"/>
-        <v>1.1290482341366779</v>
+        <v>0.63691386030330466</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -4456,39 +4537,39 @@
       </c>
       <c r="B18" s="1">
         <f>B11/$A18</f>
-        <v>4.8116244670669106E-2</v>
+        <v>0.11170672661248486</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" ref="C18:J18" si="2">C11/$A18</f>
-        <v>9.7560975609756087E-2</v>
+        <v>0.10048150025342119</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="2"/>
-        <v>0.10253031101739589</v>
+        <v>0.16016016016016016</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="2"/>
-        <v>0.16939890710382513</v>
+        <v>0.19524926686217009</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="2"/>
-        <v>0.16647345235335034</v>
+        <v>0.16594844230264277</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="2"/>
-        <v>0.17006098350171683</v>
+        <v>0.1631567751542225</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="2"/>
-        <v>0.17653563529999286</v>
+        <v>0.16057619067273526</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="2"/>
-        <v>0.16978811505050748</v>
+        <v>0.17437958647022142</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="2"/>
-        <v>0.16739682013616081</v>
+        <v>0.17819087118845969</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -4497,39 +4578,39 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" ref="B19:J23" si="3">B12/$A19</f>
-        <v>6.9664902998236328E-2</v>
+        <v>9.4610427650849441E-2</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="3"/>
-        <v>9.9915325994919549E-2</v>
+        <v>9.5796086011113779E-2</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="3"/>
-        <v>8.9931799791931569E-2</v>
+        <v>0.16384116509272956</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="3"/>
-        <v>0.16142934099479261</v>
+        <v>0.19500907972585085</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="3"/>
-        <v>0.16150800791794134</v>
+        <v>0.15666831928606842</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="3"/>
-        <v>0.16638609141290744</v>
+        <v>0.16437810945273632</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="3"/>
-        <v>0.17261277321345528</v>
+        <v>0.16402836335760826</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="3"/>
-        <v>0.15842937023523479</v>
+        <v>0.17655205101050869</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="3"/>
-        <v>0.15799248149875533</v>
+        <v>0.18104413699201316</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -4538,39 +4619,39 @@
       </c>
       <c r="B20" s="1">
         <f t="shared" si="3"/>
-        <v>6.7014057198254956E-2</v>
+        <v>9.8776758409785934E-2</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="3"/>
-        <v>6.8339768339768348E-2</v>
+        <v>8.0328200972447319E-2</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="3"/>
-        <v>7.616996279616213E-2</v>
+        <v>0.13641530882910194</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="3"/>
-        <v>0.14462676962676962</v>
+        <v>0.15975621460792783</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="3"/>
-        <v>0.15309603684539719</v>
+        <v>0.14858660175914146</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="3"/>
-        <v>0.14961152042866713</v>
+        <v>0.15538897893030792</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="3"/>
-        <v>0.1481342290807503</v>
+        <v>0.15300978232888077</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="3"/>
-        <v>0.14587103029640908</v>
+        <v>0.16407997522282253</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="3"/>
-        <v>0.15356487448932776</v>
+        <v>0.15475221730189367</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -4579,39 +4660,39 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" si="3"/>
-        <v>4.3611987381703472E-2</v>
+        <v>7.9713721618953598E-2</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="3"/>
-        <v>4.4878296146044626E-2</v>
+        <v>5.3008021390374332E-2</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="3"/>
-        <v>5.358126721763086E-2</v>
+        <v>0.10285714285714286</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="3"/>
-        <v>0.10596416784535598</v>
+        <v>0.13005938427879354</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="3"/>
-        <v>0.10248553593179049</v>
+        <v>0.11993213073763173</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="3"/>
-        <v>0.12768085787451985</v>
+        <v>0.13409090909090909</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="3"/>
-        <v>0.13882274472647482</v>
+        <v>0.1392885041010285</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="3"/>
-        <v>0.12775229632110222</v>
+        <v>0.12606286221921401</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="3"/>
-        <v>0.12994438624599455</v>
+        <v>0.11032275327385234</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -4620,39 +4701,39 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" si="3"/>
-        <v>1.491691842900302E-2</v>
+        <v>5.5213675213675213E-4</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="3"/>
-        <v>2.1712463199214917E-2</v>
+        <v>2.7719519015659954E-2</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="3"/>
-        <v>2.6775881057268726E-2</v>
+        <v>5.692599620493359E-2</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="3"/>
-        <v>5.2421862851811538E-2</v>
+        <v>7.6818349640022154E-2</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="3"/>
-        <v>5.5034338974736322E-2</v>
+        <v>6.8646493559599259E-2</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="3"/>
-        <v>6.4869778356024352E-2</v>
+        <v>7.6294548968339676E-2</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="3"/>
-        <v>6.6347597597597591E-2</v>
+        <v>8.4388310459062935E-2</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="3"/>
-        <v>6.6446197964617176E-2</v>
+        <v>7.6591916725567061E-2</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="3"/>
-        <v>6.753578977709454E-2</v>
+        <v>6.1421528862716818E-2</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -4661,39 +4742,39 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" si="3"/>
-        <v>2.6134610731353217E-4</v>
+        <v>5.161195479879327E-4</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="3"/>
-        <v>9.3001261034047922E-3</v>
+        <v>1.3373583378305449E-2</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="3"/>
-        <v>1.1114285714285714E-2</v>
+        <v>2.4363833243096916E-2</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="3"/>
-        <v>2.3090753424657537E-2</v>
+        <v>3.381480578579555E-2</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="3"/>
-        <v>2.7559981984932851E-2</v>
+        <v>3.1131200741770979E-2</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="3"/>
-        <v>3.2936877742650875E-2</v>
+        <v>3.3931189645583698E-2</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="3"/>
-        <v>3.6326075893206675E-2</v>
+        <v>3.5808599084263801E-2</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="3"/>
-        <v>3.6328597956657188E-2</v>
+        <v>2.3120310960423923E-2</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="3"/>
-        <v>3.5282757316771184E-2</v>
+        <v>1.9903558134478271E-2</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -4716,39 +4797,39 @@
       </c>
       <c r="B25" s="1">
         <f>B4*$A25</f>
-        <v>1.1493E-2</v>
+        <v>5.7829999999999999E-3</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" ref="C25:J25" si="4">C4*$A25</f>
-        <v>7.2570000000000004E-3</v>
+        <v>7.8919999999999997E-3</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="4"/>
-        <v>1.5176E-2</v>
+        <v>1.7982000000000001E-2</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="4"/>
-        <v>3.1842000000000002E-2</v>
+        <v>3.4099999999999998E-2</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="4"/>
-        <v>6.4695000000000003E-2</v>
+        <v>6.4742999999999995E-2</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="4"/>
-        <v>0.13134699999999999</v>
+        <v>0.131628</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="4"/>
-        <v>0.25230599999999997</v>
+        <v>0.266509</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="4"/>
-        <v>0.50329199999999996</v>
+        <v>0.54685300000000003</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="4"/>
-        <v>1.007779</v>
+        <v>1.1013919999999999</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -4757,39 +4838,39 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" ref="B26:J26" si="5">B5*$A26</f>
-        <v>7.9380000000000006E-3</v>
+        <v>6.8279999999999999E-3</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="5"/>
-        <v>7.0860000000000003E-3</v>
+        <v>8.2780000000000006E-3</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="5"/>
-        <v>1.7302000000000001E-2</v>
+        <v>1.7578E-2</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="5"/>
-        <v>3.3413999999999999E-2</v>
+        <v>3.4141999999999999E-2</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="5"/>
-        <v>6.6683999999999993E-2</v>
+        <v>6.8578E-2</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="5"/>
-        <v>0.13424800000000001</v>
+        <v>0.13064999999999999</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="5"/>
-        <v>0.25803999999999999</v>
+        <v>0.26090000000000002</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="5"/>
-        <v>0.53937599999999997</v>
+        <v>0.54012400000000005</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="5"/>
-        <v>1.067766</v>
+        <v>1.0840339999999999</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -4798,39 +4879,39 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" ref="B27:J27" si="6">B6*$A27</f>
-        <v>8.2520000000000007E-3</v>
+        <v>6.5399999999999998E-3</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="6"/>
-        <v>1.0359999999999999E-2</v>
+        <v>9.8720000000000006E-3</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="6"/>
-        <v>2.0428000000000002E-2</v>
+        <v>2.1111999999999999E-2</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="6"/>
-        <v>3.7296000000000003E-2</v>
+        <v>4.1675999999999998E-2</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="6"/>
-        <v>7.0347999999999994E-2</v>
+        <v>7.2307999999999997E-2</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="6"/>
-        <v>0.14929999999999999</v>
+        <v>0.138208</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="6"/>
-        <v>0.30068</v>
+        <v>0.27968799999999999</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="6"/>
-        <v>0.585812</v>
+        <v>0.58118000000000003</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="6"/>
-        <v>1.098552</v>
+        <v>1.268208</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -4839,39 +4920,39 @@
       </c>
       <c r="B28" s="1">
         <f t="shared" ref="B28:J28" si="7">B7*$A28</f>
-        <v>1.268E-2</v>
+        <v>8.1040000000000001E-3</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="7"/>
-        <v>1.5775999999999998E-2</v>
+        <v>1.4959999999999999E-2</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="7"/>
-        <v>2.904E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="7"/>
-        <v>5.0903999999999998E-2</v>
+        <v>5.1192000000000001E-2</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="7"/>
-        <v>0.105088</v>
+        <v>8.9583999999999997E-2</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="7"/>
-        <v>0.17494399999999999</v>
+        <v>0.16016</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="7"/>
-        <v>0.32084800000000002</v>
+        <v>0.30724000000000001</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" si="7"/>
-        <v>0.66889600000000005</v>
+        <v>0.75644800000000001</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="7"/>
-        <v>1.2982400000000001</v>
+        <v>1.7789440000000001</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -4880,39 +4961,39 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" ref="B29:J29" si="8">B8*$A29</f>
-        <v>3.7072000000000001E-2</v>
+        <v>1.17</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="8"/>
-        <v>3.2607999999999998E-2</v>
+        <v>2.8608000000000001E-2</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="8"/>
-        <v>5.8111999999999997E-2</v>
+        <v>5.0591999999999998E-2</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="8"/>
-        <v>0.102896</v>
+        <v>8.6671999999999999E-2</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="8"/>
-        <v>0.19569600000000001</v>
+        <v>0.15651200000000001</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="8"/>
-        <v>0.34433599999999998</v>
+        <v>0.28148800000000002</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="8"/>
-        <v>0.67132800000000004</v>
+        <v>0.50712000000000002</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" si="8"/>
-        <v>1.2860480000000001</v>
+        <v>1.2450399999999999</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="8"/>
-        <v>2.4979200000000001</v>
+        <v>3.1952639999999999</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -4921,39 +5002,39 @@
       </c>
       <c r="B30" s="1">
         <f t="shared" ref="B30:J30" si="9">B9*$A30</f>
-        <v>2.1159680000000001</v>
+        <v>1.2516480000000001</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="9"/>
-        <v>7.6128000000000001E-2</v>
+        <v>5.9296000000000001E-2</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="9"/>
-        <v>0.14000000000000001</v>
+        <v>0.11820799999999999</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="9"/>
-        <v>0.2336</v>
+        <v>0.19689599999999999</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="9"/>
-        <v>0.39078400000000002</v>
+        <v>0.34511999999999998</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="9"/>
-        <v>0.678176</v>
+        <v>0.63292800000000005</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="9"/>
-        <v>1.2261439999999999</v>
+        <v>1.1951039999999999</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" si="9"/>
-        <v>2.3522240000000001</v>
+        <v>4.1245120000000002</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="9"/>
-        <v>4.7813439999999998</v>
+        <v>9.8604479999999999</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -4976,39 +5057,39 @@
       </c>
       <c r="B32" s="1">
         <f>B25-B$2</f>
-        <v>1.094E-2</v>
+        <v>5.1370000000000001E-3</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" ref="C32:J32" si="10">C25-C$2</f>
-        <v>6.5490000000000001E-3</v>
+        <v>7.0989999999999994E-3</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="10"/>
-        <v>1.362E-2</v>
+        <v>1.5102000000000001E-2</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="10"/>
-        <v>2.6448000000000003E-2</v>
+        <v>2.7441999999999998E-2</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="10"/>
-        <v>5.3925000000000001E-2</v>
+        <v>5.3998999999999991E-2</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="10"/>
-        <v>0.10901</v>
+        <v>0.110152</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="10"/>
-        <v>0.20776499999999998</v>
+        <v>0.223714</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" si="10"/>
-        <v>0.41783899999999996</v>
+        <v>0.45149300000000003</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" si="10"/>
-        <v>0.83908000000000005</v>
+        <v>0.90513399999999988</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -5017,39 +5098,39 @@
       </c>
       <c r="B33" s="1">
         <f t="shared" ref="B33:J33" si="11">B26-B$2</f>
-        <v>7.3850000000000009E-3</v>
+        <v>6.182E-3</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="11"/>
-        <v>6.378E-3</v>
+        <v>7.4850000000000003E-3</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="11"/>
-        <v>1.5746000000000003E-2</v>
+        <v>1.4697999999999999E-2</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" si="11"/>
-        <v>2.802E-2</v>
+        <v>2.7483999999999998E-2</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="11"/>
-        <v>5.5913999999999991E-2</v>
+        <v>5.7833999999999997E-2</v>
       </c>
       <c r="G33" s="1">
         <f t="shared" si="11"/>
-        <v>0.11191100000000001</v>
+        <v>0.10917399999999999</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="11"/>
-        <v>0.21349899999999999</v>
+        <v>0.21810500000000002</v>
       </c>
       <c r="I33" s="1">
         <f t="shared" si="11"/>
-        <v>0.45392299999999997</v>
+        <v>0.44476400000000005</v>
       </c>
       <c r="J33" s="1">
         <f t="shared" si="11"/>
-        <v>0.89906700000000006</v>
+        <v>0.8877759999999999</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -5058,39 +5139,39 @@
       </c>
       <c r="B34" s="1">
         <f t="shared" ref="B34:J34" si="12">B27-B$2</f>
-        <v>7.699000000000001E-3</v>
+        <v>5.8939999999999999E-3</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="12"/>
-        <v>9.6519999999999991E-3</v>
+        <v>9.0790000000000003E-3</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="12"/>
-        <v>1.8872E-2</v>
+        <v>1.8231999999999998E-2</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="12"/>
-        <v>3.1902E-2</v>
+        <v>3.5018000000000001E-2</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="12"/>
-        <v>5.9577999999999992E-2</v>
+        <v>6.1563999999999994E-2</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" si="12"/>
-        <v>0.12696299999999999</v>
+        <v>0.116732</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" si="12"/>
-        <v>0.25613900000000001</v>
+        <v>0.23689299999999999</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" si="12"/>
-        <v>0.500359</v>
+        <v>0.48582000000000003</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" si="12"/>
-        <v>0.92985300000000004</v>
+        <v>1.07195</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -5099,39 +5180,39 @@
       </c>
       <c r="B35" s="1">
         <f t="shared" ref="B35:J35" si="13">B28-B$2</f>
-        <v>1.2127000000000001E-2</v>
+        <v>7.4580000000000002E-3</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="13"/>
-        <v>1.5067999999999998E-2</v>
+        <v>1.4166999999999999E-2</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="13"/>
-        <v>2.7484000000000001E-2</v>
+        <v>2.512E-2</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="13"/>
-        <v>4.5509999999999995E-2</v>
+        <v>4.4534000000000004E-2</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="13"/>
-        <v>9.4317999999999999E-2</v>
+        <v>7.8839999999999993E-2</v>
       </c>
       <c r="G35" s="1">
         <f t="shared" si="13"/>
-        <v>0.15260699999999999</v>
+        <v>0.138684</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="13"/>
-        <v>0.27630700000000002</v>
+        <v>0.26444500000000004</v>
       </c>
       <c r="I35" s="1">
         <f t="shared" si="13"/>
-        <v>0.58344300000000004</v>
+        <v>0.66108800000000001</v>
       </c>
       <c r="J35" s="1">
         <f t="shared" si="13"/>
-        <v>1.1295410000000001</v>
+        <v>1.582686</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -5140,39 +5221,39 @@
       </c>
       <c r="B36" s="1">
         <f t="shared" ref="B36:J36" si="14">B29-B$2</f>
-        <v>3.6519000000000003E-2</v>
+        <v>1.169354</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="14"/>
-        <v>3.1899999999999998E-2</v>
+        <v>2.7815000000000003E-2</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="14"/>
-        <v>5.6555999999999995E-2</v>
+        <v>4.7711999999999997E-2</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="14"/>
-        <v>9.7502000000000005E-2</v>
+        <v>8.0014000000000002E-2</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="14"/>
-        <v>0.18492600000000001</v>
+        <v>0.14576800000000001</v>
       </c>
       <c r="G36" s="1">
         <f t="shared" si="14"/>
-        <v>0.32199899999999998</v>
+        <v>0.26001200000000002</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="14"/>
-        <v>0.62678699999999998</v>
+        <v>0.46432499999999999</v>
       </c>
       <c r="I36" s="1">
         <f t="shared" si="14"/>
-        <v>1.2005950000000001</v>
+        <v>1.14968</v>
       </c>
       <c r="J36" s="1">
         <f t="shared" si="14"/>
-        <v>2.329221</v>
+        <v>2.9990060000000001</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -5181,39 +5262,39 @@
       </c>
       <c r="B37" s="1">
         <f t="shared" ref="B37:J37" si="15">B30-B$2</f>
-        <v>2.115415</v>
+        <v>1.2510020000000002</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="15"/>
-        <v>7.5420000000000001E-2</v>
+        <v>5.8502999999999999E-2</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="15"/>
-        <v>0.13844400000000001</v>
+        <v>0.115328</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="15"/>
-        <v>0.22820599999999999</v>
+        <v>0.19023799999999999</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="15"/>
-        <v>0.38001400000000002</v>
+        <v>0.33437600000000001</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" si="15"/>
-        <v>0.65583899999999995</v>
+        <v>0.611452</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" si="15"/>
-        <v>1.181603</v>
+        <v>1.152309</v>
       </c>
       <c r="I37" s="1">
         <f t="shared" si="15"/>
-        <v>2.2667710000000003</v>
+        <v>4.0291519999999998</v>
       </c>
       <c r="J37" s="1">
         <f t="shared" si="15"/>
-        <v>4.6126449999999997</v>
+        <v>9.6641899999999996</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -5277,39 +5358,39 @@
       </c>
       <c r="B40" s="1">
         <f t="shared" ref="B40:J40" si="17">(1/B12-1/$A40)/(1-1/$A40)</f>
-        <v>13.354430379746836</v>
+        <v>9.5696594427244577</v>
       </c>
       <c r="C40" s="1">
         <f t="shared" si="17"/>
-        <v>9.0084745762711869</v>
+        <v>9.4388398486759169</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="17"/>
-        <v>10.119537275064268</v>
+        <v>5.103472222222222</v>
       </c>
       <c r="E40" s="1">
         <f t="shared" si="17"/>
-        <v>5.1946607341490543</v>
+        <v>4.1279663562631423</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="17"/>
-        <v>5.1916434540389966</v>
+        <v>5.3829113924050631</v>
       </c>
       <c r="G40" s="1">
         <f t="shared" si="17"/>
-        <v>5.0101177418632767</v>
+        <v>5.0835351089588379</v>
       </c>
       <c r="H40" s="1">
         <f t="shared" si="17"/>
-        <v>4.793314025280079</v>
+        <v>5.0965066012384632</v>
       </c>
       <c r="I40" s="1">
         <f t="shared" si="17"/>
-        <v>5.3119609609961032</v>
+        <v>4.6640520134228192</v>
       </c>
       <c r="J40" s="1">
         <f t="shared" si="17"/>
-        <v>5.3294151121227751</v>
+        <v>4.5235149649950577</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -5318,39 +5399,39 @@
       </c>
       <c r="B41" s="1">
         <f t="shared" ref="B41:J41" si="18">(1/B13-1/$A41)/(1-1/$A41)</f>
-        <v>4.6407474382157936</v>
+        <v>3.0412796697626416</v>
       </c>
       <c r="C41" s="1">
         <f t="shared" si="18"/>
-        <v>4.5442561205273062</v>
+        <v>3.8163093736864231</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="18"/>
-        <v>4.0428449014567267</v>
+        <v>2.1101851851851849</v>
       </c>
       <c r="E41" s="1">
         <f t="shared" si="18"/>
-        <v>1.9714497589914721</v>
+        <v>1.7531791328727344</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="18"/>
-        <v>1.8439492417208292</v>
+        <v>1.9100273020600644</v>
       </c>
       <c r="G41" s="1">
         <f t="shared" si="18"/>
-        <v>1.8946590858217307</v>
+        <v>1.8118209474141678</v>
       </c>
       <c r="H41" s="1">
         <f t="shared" si="18"/>
-        <v>1.9168780823660596</v>
+        <v>1.8451766172060597</v>
       </c>
       <c r="I41" s="1">
         <f t="shared" si="18"/>
-        <v>1.9517902628735486</v>
+        <v>1.6981963087248324</v>
       </c>
       <c r="J41" s="1">
         <f t="shared" si="18"/>
-        <v>1.8373019401419095</v>
+        <v>1.8206476508813232</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -5359,39 +5440,39 @@
       </c>
       <c r="B42" s="1">
         <f t="shared" ref="B42:J42" si="19">(1/B14-1/$A42)/(1-1/$A42)</f>
-        <v>3.1327822268147765</v>
+        <v>1.6492702344095533</v>
       </c>
       <c r="C42" s="1">
         <f t="shared" si="19"/>
-        <v>3.0403551251008878</v>
+        <v>2.5521527652675191</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="19"/>
-        <v>2.5233198677928752</v>
+        <v>1.2460317460317463</v>
       </c>
       <c r="E42" s="1">
         <f t="shared" si="19"/>
-        <v>1.2053074845065945</v>
+        <v>0.95554220486632635</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="19"/>
-        <v>1.2510677808727948</v>
+        <v>1.0482927348154452</v>
       </c>
       <c r="G42" s="1">
         <f t="shared" si="19"/>
-        <v>0.97600393965169896</v>
+        <v>0.92251815980629537</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" si="19"/>
-        <v>0.88620436387662094</v>
+        <v>0.88276334017658953</v>
       </c>
       <c r="I42" s="1">
         <f t="shared" si="19"/>
-        <v>0.97537827811779587</v>
+        <v>0.99036433365292431</v>
       </c>
       <c r="J42" s="1">
         <f t="shared" si="19"/>
-        <v>0.95651426505195669</v>
+        <v>1.152044757411163</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -5400,39 +5481,39 @@
       </c>
       <c r="B43" s="1">
         <f t="shared" ref="B43:J43" si="20">(1/B15-1/$A43)/(1-1/$A43)</f>
-        <v>4.4025316455696206</v>
+        <v>120.67636738906089</v>
       </c>
       <c r="C43" s="1">
         <f t="shared" si="20"/>
-        <v>3.0037664783427496</v>
+        <v>2.3383774695250108</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="20"/>
-        <v>2.423136246786632</v>
+        <v>1.1044444444444443</v>
       </c>
       <c r="E43" s="1">
         <f t="shared" si="20"/>
-        <v>1.2050673587937213</v>
+        <v>0.80118153599679576</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="20"/>
-        <v>1.1446982358402973</v>
+        <v>0.90449242988334588</v>
       </c>
       <c r="G43" s="1">
         <f t="shared" si="20"/>
-        <v>0.96103326319559479</v>
+        <v>0.80713975290246487</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" si="20"/>
-        <v>0.93814238566713826</v>
+        <v>0.7233321649725436</v>
       </c>
       <c r="I43" s="1">
         <f t="shared" si="20"/>
-        <v>0.93665133660218691</v>
+        <v>0.8037472035794182</v>
       </c>
       <c r="J43" s="1">
         <f t="shared" si="20"/>
-        <v>0.9204642588278531</v>
+        <v>1.0187290879013</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -5441,39 +5522,39 @@
       </c>
       <c r="B44" s="1">
         <f t="shared" ref="B44:J44" si="21">(1/B16-1/$A44)/(1-1/$A44)</f>
-        <v>123.39818001516653</v>
+        <v>62.468890442424851</v>
       </c>
       <c r="C44" s="1">
         <f t="shared" si="21"/>
-        <v>3.4363039912520499</v>
+        <v>2.3798153195297567</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="21"/>
-        <v>2.870138485778257</v>
+        <v>1.2917562724014338</v>
       </c>
       <c r="E44" s="1">
         <f t="shared" si="21"/>
-        <v>1.364754147380004</v>
+        <v>0.92170466768088832</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="21"/>
-        <v>1.1382094827328002</v>
+        <v>1.0039391828597508</v>
       </c>
       <c r="G44" s="1">
         <f t="shared" si="21"/>
-        <v>0.94713241591053177</v>
+        <v>0.91843257890278129</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" si="21"/>
-        <v>0.85575595084195699</v>
+        <v>0.86858880861119581</v>
       </c>
       <c r="I44" s="1">
         <f t="shared" si="21"/>
-        <v>0.85569430167800231</v>
+        <v>1.3629681749296387</v>
       </c>
       <c r="J44" s="1">
         <f t="shared" si="21"/>
-        <v>0.88201471259462116</v>
+        <v>1.5884604169823857</v>
       </c>
     </row>
   </sheetData>
